--- a/results/all_sep_k_cluster_stats.xlsx
+++ b/results/all_sep_k_cluster_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s145559\OneDrive - TU Eindhoven\School\JADS\Jaar 2\Thesis\RADON PROJECT\GIT projects\ANALYSIS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_E060F1A9811A5B513A5A1F637F18EDE8E7C56C21" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8BE4124D-CD36-4F35-82B7-1A794D503046}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_E060F1A9811A5B513A5A1F637F18EDE8E7C56C21" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{50D34890-CF15-4710-8655-C5A573797B71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,16 +579,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="5"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" style="7"/>
     <col min="18" max="18" width="8.88671875" style="7"/>
   </cols>
